--- a/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3329.xlsx
+++ b/robots/jackal/vision_based_navigation_ttt/tau_values_no_flag/tau_value3329.xlsx
@@ -348,19 +348,19 @@
   <sheetData>
     <row r="1" spans="1:5">
       <c r="A1">
-        <v>0.9153790395983405</v>
+        <v>2.138469934463501</v>
       </c>
       <c r="B1">
-        <v>1.539461581445614</v>
+        <v>4.555659770965576</v>
       </c>
       <c r="C1">
-        <v>5.253963090706823</v>
+        <v>3.410183191299438</v>
       </c>
       <c r="D1">
-        <v>4.795032234061027</v>
+        <v>0.8973651528358459</v>
       </c>
       <c r="E1">
-        <v>1.599476139331271</v>
+        <v>0.4719249606132507</v>
       </c>
     </row>
   </sheetData>
